--- a/Documents/MaxIoOfEachFilterStage.xlsx
+++ b/Documents/MaxIoOfEachFilterStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECE_Projects\Music_Visualizer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929C2027-00F9-41B8-BD0F-1048888EB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D57BE62-6BA2-459E-BA56-DAFECF635F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{445ACF4B-5B8F-4A4B-A14A-26AA8C1D6BE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{445ACF4B-5B8F-4A4B-A14A-26AA8C1D6BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,7 +118,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -118,17 +128,109 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -141,12 +243,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +574,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,145 +584,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>115</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>115</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>3600</v>
       </c>
-      <c r="E2">
-        <f>SUM(B2:D2)/1000</f>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E8" si="0">SUM(B2:D2)/1000</f>
         <v>3.83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>130</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>150</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>3600</v>
       </c>
-      <c r="E3">
-        <f>SUM(B3:D3)/1000</f>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
         <v>3.88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>85</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>3600</v>
       </c>
-      <c r="E4">
-        <f>SUM(B4:D4)/1000</f>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
         <v>3.7549999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>170</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>160</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>3600</v>
       </c>
-      <c r="E5">
-        <f>SUM(B5:D5)/1000</f>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
         <v>3.93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>165</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>140</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>3600</v>
       </c>
-      <c r="E6">
-        <f>SUM(B6:D6)/1000</f>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
         <v>3.9049999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>190</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>180</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>3600</v>
       </c>
-      <c r="E7">
-        <f>SUM(B7:D7)/1000</f>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
         <v>3.97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>915</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>830</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>3600</v>
       </c>
-      <c r="E8">
-        <f>SUM(B8:D8)/1000</f>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
         <v>5.3449999999999998</v>
       </c>
     </row>
